--- a/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/木材加工及木、竹、藤、棕、草制品业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/木材加工及木、竹、藤、棕、草制品业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1243 +454,1446 @@
           <t>木材加工及木、竹、藤、棕、草制品业出口交货值_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>木材加工及木、竹、藤、棕、草制品业出口交货值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.68</v>
+        <v>23.78</v>
       </c>
       <c r="C2" t="n">
-        <v>69.62</v>
+        <v>52.56</v>
       </c>
       <c r="D2" t="n">
-        <v>641.28</v>
+        <v>95.47</v>
       </c>
       <c r="E2" t="n">
-        <v>11.62</v>
+        <v>7.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.25</v>
+        <v>16.98</v>
       </c>
       <c r="C3" t="n">
-        <v>75.2</v>
+        <v>62.05</v>
       </c>
       <c r="D3" t="n">
-        <v>714.9299999999999</v>
+        <v>157.72</v>
       </c>
       <c r="E3" t="n">
-        <v>12.76</v>
+        <v>11.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>62.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.83</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>796.83</v>
+        <v>224.23</v>
       </c>
       <c r="E4" t="n">
-        <v>12.14</v>
+        <v>10.99</v>
+      </c>
+      <c r="F4" t="n">
+        <v>66.50999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.78</v>
+        <v>10.28</v>
       </c>
       <c r="C5" t="n">
-        <v>52.56</v>
+        <v>68.14</v>
       </c>
       <c r="D5" t="n">
-        <v>95.47</v>
+        <v>292.4</v>
       </c>
       <c r="E5" t="n">
-        <v>7.2</v>
+        <v>10.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>68.16999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.98</v>
+        <v>12.78</v>
       </c>
       <c r="C6" t="n">
-        <v>62.05</v>
+        <v>76.28</v>
       </c>
       <c r="D6" t="n">
-        <v>157.72</v>
+        <v>368.12</v>
       </c>
       <c r="E6" t="n">
-        <v>11.54</v>
+        <v>12.35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75.72000000000003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.609999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="C7" t="n">
-        <v>66.04000000000001</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>224.23</v>
+        <v>433.59</v>
       </c>
       <c r="E7" t="n">
-        <v>10.99</v>
+        <v>11.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>65.46999999999997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.28</v>
+        <v>11.25</v>
       </c>
       <c r="C8" t="n">
-        <v>68.14</v>
+        <v>67.33</v>
       </c>
       <c r="D8" t="n">
-        <v>292.4</v>
+        <v>488.97</v>
       </c>
       <c r="E8" t="n">
-        <v>10.63</v>
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>55.38000000000005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.78</v>
+        <v>8.81</v>
       </c>
       <c r="C9" t="n">
-        <v>76.28</v>
+        <v>70.53</v>
       </c>
       <c r="D9" t="n">
-        <v>368.12</v>
+        <v>569.63</v>
       </c>
       <c r="E9" t="n">
-        <v>12.35</v>
+        <v>11.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80.65999999999997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.83</v>
+        <v>11.68</v>
       </c>
       <c r="C10" t="n">
-        <v>66.95999999999999</v>
+        <v>69.62</v>
       </c>
       <c r="D10" t="n">
-        <v>433.59</v>
+        <v>641.28</v>
       </c>
       <c r="E10" t="n">
-        <v>11.17</v>
+        <v>11.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71.64999999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.25</v>
+        <v>19.25</v>
       </c>
       <c r="C11" t="n">
-        <v>67.33</v>
+        <v>75.2</v>
       </c>
       <c r="D11" t="n">
-        <v>488.97</v>
+        <v>714.9299999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>9.029999999999999</v>
+        <v>12.76</v>
+      </c>
+      <c r="F11" t="n">
+        <v>73.64999999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.81</v>
+        <v>7.83</v>
       </c>
       <c r="C12" t="n">
-        <v>70.53</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
-        <v>569.63</v>
+        <v>796.83</v>
       </c>
       <c r="E12" t="n">
-        <v>11.03</v>
+        <v>12.14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>81.90000000000009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.4</v>
+        <v>0.4</v>
       </c>
       <c r="C13" t="n">
-        <v>72.7</v>
+        <v>52.7</v>
       </c>
       <c r="D13" t="n">
-        <v>675.9</v>
+        <v>111.8</v>
       </c>
       <c r="E13" t="n">
-        <v>13.5</v>
+        <v>18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>111.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.5</v>
+        <v>17.6</v>
       </c>
       <c r="C14" t="n">
-        <v>78</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>756.6</v>
+        <v>188</v>
       </c>
       <c r="E14" t="n">
-        <v>14.3</v>
+        <v>21.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="C15" t="n">
-        <v>80.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>834.7</v>
+        <v>260.6</v>
       </c>
       <c r="E15" t="n">
-        <v>14.3</v>
+        <v>16.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>72.60000000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
       <c r="C16" t="n">
-        <v>52.7</v>
+        <v>76</v>
       </c>
       <c r="D16" t="n">
-        <v>111.8</v>
+        <v>338.6</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>15.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.6</v>
+        <v>9.5</v>
       </c>
       <c r="C17" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>188</v>
+        <v>385.2</v>
       </c>
       <c r="E17" t="n">
-        <v>21.2</v>
+        <v>13.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46.59999999999997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.9</v>
+        <v>13.1</v>
       </c>
       <c r="C18" t="n">
-        <v>73.40000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="D18" t="n">
-        <v>260.6</v>
+        <v>459.6</v>
       </c>
       <c r="E18" t="n">
-        <v>16.4</v>
+        <v>14.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>74.40000000000003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.7</v>
+        <v>13.4</v>
       </c>
       <c r="C19" t="n">
-        <v>76</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>338.6</v>
+        <v>529.3</v>
       </c>
       <c r="E19" t="n">
-        <v>15.1</v>
+        <v>17.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>69.69999999999993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.5</v>
+        <v>14.3</v>
       </c>
       <c r="C20" t="n">
-        <v>74.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>385.2</v>
+        <v>602.7</v>
       </c>
       <c r="E20" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>73.40000000000009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.1</v>
+        <v>11.4</v>
       </c>
       <c r="C21" t="n">
-        <v>70.7</v>
+        <v>72.7</v>
       </c>
       <c r="D21" t="n">
-        <v>459.6</v>
+        <v>675.9</v>
       </c>
       <c r="E21" t="n">
-        <v>14.8</v>
+        <v>13.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>73.19999999999993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.4</v>
+        <v>9.5</v>
       </c>
       <c r="C22" t="n">
-        <v>71.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="D22" t="n">
-        <v>529.3</v>
+        <v>756.6</v>
       </c>
       <c r="E22" t="n">
-        <v>17.3</v>
+        <v>14.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>80.70000000000005</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>834.7</v>
+      </c>
+      <c r="E23" t="n">
         <v>14.3</v>
       </c>
-      <c r="C23" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="D23" t="n">
-        <v>602.7</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14.1</v>
+      <c r="F23" t="n">
+        <v>78.10000000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>72.90000000000001</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>701</v>
+        <v>114.3</v>
       </c>
       <c r="E24" t="n">
-        <v>11.7</v>
+        <v>10.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>114.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.5</v>
+        <v>13.2</v>
       </c>
       <c r="C25" t="n">
-        <v>72.2</v>
+        <v>76.5</v>
       </c>
       <c r="D25" t="n">
-        <v>773.5</v>
+        <v>193.6</v>
       </c>
       <c r="E25" t="n">
-        <v>9.5</v>
+        <v>12.1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>81.3</v>
+        <v>72.5</v>
       </c>
       <c r="D26" t="n">
-        <v>852.5</v>
+        <v>262.2</v>
       </c>
       <c r="E26" t="n">
-        <v>8.6</v>
+        <v>11.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71.3</v>
+      </c>
       <c r="D27" t="n">
-        <v>114.3</v>
+        <v>325.5</v>
       </c>
       <c r="E27" t="n">
-        <v>10.6</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>63.30000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="C28" t="n">
-        <v>76.5</v>
+        <v>79.8</v>
       </c>
       <c r="D28" t="n">
-        <v>193.6</v>
+        <v>406.1</v>
       </c>
       <c r="E28" t="n">
-        <v>12.1</v>
+        <v>10.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>80.60000000000002</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="C29" t="n">
-        <v>72.5</v>
+        <v>71.8</v>
       </c>
       <c r="D29" t="n">
-        <v>262.2</v>
+        <v>463.7</v>
       </c>
       <c r="E29" t="n">
-        <v>11.8</v>
+        <v>9.4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>57.59999999999997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="D30" t="n">
-        <v>325.5</v>
+        <v>538.2</v>
       </c>
       <c r="E30" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>74.50000000000006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.4</v>
+        <v>11.3</v>
       </c>
       <c r="C31" t="n">
-        <v>79.8</v>
+        <v>80.3</v>
       </c>
       <c r="D31" t="n">
-        <v>406.1</v>
+        <v>623.3</v>
       </c>
       <c r="E31" t="n">
-        <v>10.9</v>
+        <v>11.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>85.09999999999991</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>71.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>463.7</v>
+        <v>701</v>
       </c>
       <c r="E32" t="n">
-        <v>9.4</v>
+        <v>11.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>77.70000000000005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.800000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="C33" t="n">
-        <v>72.8</v>
+        <v>72.2</v>
       </c>
       <c r="D33" t="n">
-        <v>538.2</v>
+        <v>773.5</v>
       </c>
       <c r="E33" t="n">
-        <v>10.1</v>
+        <v>9.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>72.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.3</v>
+        <v>7.2</v>
       </c>
       <c r="C34" t="n">
-        <v>80.3</v>
+        <v>81.3</v>
       </c>
       <c r="D34" t="n">
-        <v>623.3</v>
+        <v>852.5</v>
       </c>
       <c r="E34" t="n">
-        <v>11.8</v>
+        <v>8.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C35" t="n">
-        <v>74</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>695.8</v>
+        <v>116.1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>116.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.7</v>
+        <v>-3.7</v>
       </c>
       <c r="C36" t="n">
-        <v>73.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>762.6</v>
+        <v>180.8</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.8</v>
+        <v>1.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>64.70000000000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.9</v>
+        <v>-4.1</v>
       </c>
       <c r="C37" t="n">
-        <v>80.7</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>848.2</v>
+        <v>245.6</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2</v>
+        <v>0.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>64.79999999999998</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>68.3</v>
+      </c>
       <c r="D38" t="n">
-        <v>116.1</v>
+        <v>314</v>
       </c>
       <c r="E38" t="n">
-        <v>9.800000000000001</v>
+        <v>0.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-3.7</v>
+        <v>1.7</v>
       </c>
       <c r="C39" t="n">
-        <v>67.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="D39" t="n">
-        <v>180.8</v>
+        <v>396.5</v>
       </c>
       <c r="E39" t="n">
         <v>1.5</v>
       </c>
+      <c r="F39" t="n">
+        <v>82.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-4.1</v>
+        <v>-1.6</v>
       </c>
       <c r="C40" t="n">
-        <v>65.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>245.6</v>
+        <v>465.7</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>69.19999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>-2.8</v>
       </c>
       <c r="C41" t="n">
-        <v>68.3</v>
+        <v>70.8</v>
       </c>
       <c r="D41" t="n">
-        <v>314</v>
+        <v>537.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>71.90000000000003</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.7</v>
+        <v>-3.7</v>
       </c>
       <c r="C42" t="n">
-        <v>78.7</v>
+        <v>77.7</v>
       </c>
       <c r="D42" t="n">
-        <v>396.5</v>
+        <v>618.2</v>
       </c>
       <c r="E42" t="n">
-        <v>1.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>80.60000000000002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.6</v>
+        <v>1.2</v>
       </c>
       <c r="C43" t="n">
-        <v>70.59999999999999</v>
+        <v>74</v>
       </c>
       <c r="D43" t="n">
-        <v>465.7</v>
+        <v>695.8</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>77.59999999999991</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.8</v>
+        <v>1.7</v>
       </c>
       <c r="C44" t="n">
-        <v>70.8</v>
+        <v>73.8</v>
       </c>
       <c r="D44" t="n">
-        <v>537.6</v>
+        <v>762.6</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3</v>
+        <v>-0.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>66.80000000000007</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-3.7</v>
+        <v>-1.9</v>
       </c>
       <c r="C45" t="n">
-        <v>77.7</v>
+        <v>80.7</v>
       </c>
       <c r="D45" t="n">
-        <v>618.2</v>
+        <v>848.2</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>85.60000000000002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C46" t="n">
-        <v>78.8</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>749.7</v>
+        <v>119</v>
       </c>
       <c r="E46" t="n">
-        <v>6.9</v>
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6.5</v>
+        <v>12.3</v>
       </c>
       <c r="C47" t="n">
-        <v>80.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>823.5</v>
+        <v>200</v>
       </c>
       <c r="E47" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="C48" t="n">
-        <v>85.90000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>908</v>
+        <v>273.9</v>
       </c>
       <c r="E48" t="n">
-        <v>5.7</v>
+        <v>9.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>73.89999999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>76</v>
+      </c>
       <c r="D49" t="n">
-        <v>119</v>
+        <v>348.5</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>9.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>74.60000000000002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.3</v>
+        <v>5.1</v>
       </c>
       <c r="C50" t="n">
-        <v>76.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>200</v>
+        <v>430.1</v>
       </c>
       <c r="E50" t="n">
-        <v>9.1</v>
+        <v>7.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>81.60000000000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="C51" t="n">
-        <v>72.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D51" t="n">
-        <v>273.9</v>
+        <v>505.8</v>
       </c>
       <c r="E51" t="n">
-        <v>9.5</v>
+        <v>7.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>75.69999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>9.4</v>
       </c>
       <c r="C52" t="n">
-        <v>76</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>348.5</v>
+        <v>587.7</v>
       </c>
       <c r="E52" t="n">
-        <v>9.5</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>81.90000000000003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="C53" t="n">
-        <v>83.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="D53" t="n">
-        <v>430.1</v>
+        <v>669.1</v>
       </c>
       <c r="E53" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>81.39999999999998</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="C54" t="n">
-        <v>76.7</v>
+        <v>78.8</v>
       </c>
       <c r="D54" t="n">
-        <v>505.8</v>
+        <v>749.7</v>
       </c>
       <c r="E54" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>80.60000000000002</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="C55" t="n">
-        <v>79.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="D55" t="n">
-        <v>587.7</v>
+        <v>823.5</v>
       </c>
       <c r="E55" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>73.79999999999995</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="C56" t="n">
-        <v>82.3</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>669.1</v>
+        <v>908</v>
       </c>
       <c r="E56" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>80</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>761.2</v>
+        <v>126.9</v>
       </c>
       <c r="E57" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>126.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C58" t="n">
-        <v>82</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>825.6</v>
+        <v>199.8</v>
       </c>
       <c r="E58" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-3.2</v>
+        <v>-1.4</v>
       </c>
       <c r="C59" t="n">
-        <v>76.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>840.4</v>
+        <v>276.4</v>
       </c>
       <c r="E59" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>76.59999999999997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>78.7</v>
+      </c>
       <c r="D60" t="n">
-        <v>126.9</v>
+        <v>361.5</v>
       </c>
       <c r="E60" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>85.10000000000002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.4</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>76.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="D61" t="n">
-        <v>199.8</v>
+        <v>442.1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>80.60000000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1.4</v>
+        <v>6.5</v>
       </c>
       <c r="C62" t="n">
-        <v>71.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>276.4</v>
+        <v>523</v>
       </c>
       <c r="E62" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>80.89999999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="C63" t="n">
-        <v>78.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>361.5</v>
+        <v>606.8</v>
       </c>
       <c r="E63" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>83.79999999999995</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="C64" t="n">
-        <v>85.3</v>
+        <v>84.3</v>
       </c>
       <c r="D64" t="n">
-        <v>442.1</v>
+        <v>687.3</v>
       </c>
       <c r="E64" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="C65" t="n">
-        <v>82.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="D65" t="n">
-        <v>523</v>
+        <v>761.2</v>
       </c>
       <c r="E65" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>73.90000000000009</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="C66" t="n">
-        <v>82.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="D66" t="n">
-        <v>606.8</v>
+        <v>825.6</v>
       </c>
       <c r="E66" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>64.39999999999998</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.8</v>
+        <v>-3.2</v>
       </c>
       <c r="C67" t="n">
-        <v>84.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>687.3</v>
+        <v>840.4</v>
       </c>
       <c r="E67" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14.79999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/木材加工及木、竹、藤、棕、草制品业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/木材加工及木、竹、藤、棕、草制品业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1446 +454,1243 @@
           <t>木材加工及木、竹、藤、棕、草制品业出口交货值_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>木材加工及木、竹、藤、棕、草制品业出口交货值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.78</v>
+        <v>11.68</v>
       </c>
       <c r="C2" t="n">
-        <v>52.56</v>
+        <v>69.62</v>
       </c>
       <c r="D2" t="n">
-        <v>95.47</v>
+        <v>641.28</v>
       </c>
       <c r="E2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>95.47</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.98</v>
+        <v>19.25</v>
       </c>
       <c r="C3" t="n">
-        <v>62.05</v>
+        <v>75.2</v>
       </c>
       <c r="D3" t="n">
-        <v>157.72</v>
+        <v>714.9299999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F3" t="n">
-        <v>62.25</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.609999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="C4" t="n">
-        <v>66.04000000000001</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>224.23</v>
+        <v>796.83</v>
       </c>
       <c r="E4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F4" t="n">
-        <v>66.50999999999999</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.28</v>
+        <v>23.78</v>
       </c>
       <c r="C5" t="n">
-        <v>68.14</v>
+        <v>52.56</v>
       </c>
       <c r="D5" t="n">
-        <v>292.4</v>
+        <v>95.47</v>
       </c>
       <c r="E5" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="F5" t="n">
-        <v>68.16999999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.78</v>
+        <v>16.98</v>
       </c>
       <c r="C6" t="n">
-        <v>76.28</v>
+        <v>62.05</v>
       </c>
       <c r="D6" t="n">
-        <v>368.12</v>
+        <v>157.72</v>
       </c>
       <c r="E6" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75.72000000000003</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.83</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>66.95999999999999</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>433.59</v>
+        <v>224.23</v>
       </c>
       <c r="E7" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>65.46999999999997</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.25</v>
+        <v>10.28</v>
       </c>
       <c r="C8" t="n">
-        <v>67.33</v>
+        <v>68.14</v>
       </c>
       <c r="D8" t="n">
-        <v>488.97</v>
+        <v>292.4</v>
       </c>
       <c r="E8" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>55.38000000000005</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.81</v>
+        <v>12.78</v>
       </c>
       <c r="C9" t="n">
-        <v>70.53</v>
+        <v>76.28</v>
       </c>
       <c r="D9" t="n">
-        <v>569.63</v>
+        <v>368.12</v>
       </c>
       <c r="E9" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80.65999999999997</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.68</v>
+        <v>7.83</v>
       </c>
       <c r="C10" t="n">
-        <v>69.62</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>641.28</v>
+        <v>433.59</v>
       </c>
       <c r="E10" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F10" t="n">
-        <v>71.64999999999998</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.25</v>
+        <v>11.25</v>
       </c>
       <c r="C11" t="n">
-        <v>75.2</v>
+        <v>67.33</v>
       </c>
       <c r="D11" t="n">
-        <v>714.9299999999999</v>
+        <v>488.97</v>
       </c>
       <c r="E11" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>73.64999999999998</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.83</v>
+        <v>8.81</v>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>70.53</v>
       </c>
       <c r="D12" t="n">
-        <v>796.83</v>
+        <v>569.63</v>
       </c>
       <c r="E12" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>81.90000000000009</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="C13" t="n">
-        <v>52.7</v>
+        <v>72.7</v>
       </c>
       <c r="D13" t="n">
-        <v>111.8</v>
+        <v>675.9</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
-      </c>
-      <c r="F13" t="n">
-        <v>111.8</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.6</v>
+        <v>9.5</v>
       </c>
       <c r="C14" t="n">
-        <v>74.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>188</v>
+        <v>756.6</v>
       </c>
       <c r="E14" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>76.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="C15" t="n">
-        <v>73.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>260.6</v>
+        <v>834.7</v>
       </c>
       <c r="E15" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>72.60000000000002</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.7</v>
+        <v>0.4</v>
       </c>
       <c r="C16" t="n">
-        <v>76</v>
+        <v>52.7</v>
       </c>
       <c r="D16" t="n">
-        <v>338.6</v>
+        <v>111.8</v>
       </c>
       <c r="E16" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.5</v>
+        <v>17.6</v>
       </c>
       <c r="C17" t="n">
-        <v>74.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>385.2</v>
+        <v>188</v>
       </c>
       <c r="E17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>46.59999999999997</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.1</v>
+        <v>9.9</v>
       </c>
       <c r="C18" t="n">
-        <v>70.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>459.6</v>
+        <v>260.6</v>
       </c>
       <c r="E18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>74.40000000000003</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.4</v>
+        <v>10.7</v>
       </c>
       <c r="C19" t="n">
-        <v>71.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="D19" t="n">
-        <v>529.3</v>
+        <v>338.6</v>
       </c>
       <c r="E19" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>69.69999999999993</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.3</v>
+        <v>9.5</v>
       </c>
       <c r="C20" t="n">
-        <v>76.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>602.7</v>
+        <v>385.2</v>
       </c>
       <c r="E20" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>73.40000000000009</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.4</v>
+        <v>13.1</v>
       </c>
       <c r="C21" t="n">
-        <v>72.7</v>
+        <v>70.7</v>
       </c>
       <c r="D21" t="n">
-        <v>675.9</v>
+        <v>459.6</v>
       </c>
       <c r="E21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>73.19999999999993</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.5</v>
+        <v>13.4</v>
       </c>
       <c r="C22" t="n">
-        <v>78</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>756.6</v>
+        <v>529.3</v>
       </c>
       <c r="E22" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>80.70000000000005</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.5</v>
+        <v>14.3</v>
       </c>
       <c r="C23" t="n">
-        <v>80.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>834.7</v>
+        <v>602.7</v>
       </c>
       <c r="E23" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>78.10000000000002</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>72.90000000000001</v>
+      </c>
       <c r="D24" t="n">
-        <v>114.3</v>
+        <v>701</v>
       </c>
       <c r="E24" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F24" t="n">
-        <v>114.3</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.2</v>
+        <v>-2.5</v>
       </c>
       <c r="C25" t="n">
-        <v>76.5</v>
+        <v>72.2</v>
       </c>
       <c r="D25" t="n">
-        <v>193.6</v>
+        <v>773.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>79.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="C26" t="n">
-        <v>72.5</v>
+        <v>81.3</v>
       </c>
       <c r="D26" t="n">
-        <v>262.2</v>
+        <v>852.5</v>
       </c>
       <c r="E26" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>68.59999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>71.3</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>325.5</v>
+        <v>114.3</v>
       </c>
       <c r="E27" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F27" t="n">
-        <v>63.30000000000001</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="C28" t="n">
-        <v>79.8</v>
+        <v>76.5</v>
       </c>
       <c r="D28" t="n">
-        <v>406.1</v>
+        <v>193.6</v>
       </c>
       <c r="E28" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>80.60000000000002</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>71.8</v>
+        <v>72.5</v>
       </c>
       <c r="D29" t="n">
-        <v>463.7</v>
+        <v>262.2</v>
       </c>
       <c r="E29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>57.59999999999997</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="C30" t="n">
-        <v>72.8</v>
+        <v>71.3</v>
       </c>
       <c r="D30" t="n">
-        <v>538.2</v>
+        <v>325.5</v>
       </c>
       <c r="E30" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>74.50000000000006</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.3</v>
+        <v>12.4</v>
       </c>
       <c r="C31" t="n">
-        <v>80.3</v>
+        <v>79.8</v>
       </c>
       <c r="D31" t="n">
-        <v>623.3</v>
+        <v>406.1</v>
       </c>
       <c r="E31" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>85.09999999999991</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="C32" t="n">
-        <v>72.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="D32" t="n">
-        <v>701</v>
+        <v>463.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>77.70000000000005</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>72.2</v>
+        <v>72.8</v>
       </c>
       <c r="D33" t="n">
-        <v>773.5</v>
+        <v>538.2</v>
       </c>
       <c r="E33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>72.5</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.2</v>
+        <v>11.3</v>
       </c>
       <c r="C34" t="n">
-        <v>81.3</v>
+        <v>80.3</v>
       </c>
       <c r="D34" t="n">
-        <v>852.5</v>
+        <v>623.3</v>
       </c>
       <c r="E34" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>79</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>74</v>
+      </c>
       <c r="D35" t="n">
-        <v>116.1</v>
+        <v>695.8</v>
       </c>
       <c r="E35" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F35" t="n">
-        <v>116.1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-3.7</v>
+        <v>1.7</v>
       </c>
       <c r="C36" t="n">
-        <v>67.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="D36" t="n">
-        <v>180.8</v>
+        <v>762.6</v>
       </c>
       <c r="E36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>64.70000000000002</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-4.1</v>
+        <v>-1.9</v>
       </c>
       <c r="C37" t="n">
-        <v>65.09999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="D37" t="n">
-        <v>245.6</v>
+        <v>848.2</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>64.79999999999998</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>68.3</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>314</v>
+        <v>116.1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>68.40000000000001</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.7</v>
+        <v>-3.7</v>
       </c>
       <c r="C39" t="n">
-        <v>78.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>396.5</v>
+        <v>180.8</v>
       </c>
       <c r="E39" t="n">
         <v>1.5</v>
       </c>
-      <c r="F39" t="n">
-        <v>82.5</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.6</v>
+        <v>-4.1</v>
       </c>
       <c r="C40" t="n">
-        <v>70.59999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>465.7</v>
+        <v>245.6</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>69.19999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.8</v>
+        <v>-1</v>
       </c>
       <c r="C41" t="n">
-        <v>70.8</v>
+        <v>68.3</v>
       </c>
       <c r="D41" t="n">
-        <v>537.6</v>
+        <v>314</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>71.90000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-3.7</v>
+        <v>1.7</v>
       </c>
       <c r="C42" t="n">
-        <v>77.7</v>
+        <v>78.7</v>
       </c>
       <c r="D42" t="n">
-        <v>618.2</v>
+        <v>396.5</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>80.60000000000002</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="C43" t="n">
-        <v>74</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>695.8</v>
+        <v>465.7</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>77.59999999999991</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C44" t="n">
-        <v>73.8</v>
+        <v>70.8</v>
       </c>
       <c r="D44" t="n">
-        <v>762.6</v>
+        <v>537.6</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>66.80000000000007</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1.9</v>
+        <v>-3.7</v>
       </c>
       <c r="C45" t="n">
-        <v>80.7</v>
+        <v>77.7</v>
       </c>
       <c r="D45" t="n">
-        <v>848.2</v>
+        <v>618.2</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>85.60000000000002</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>78.8</v>
+      </c>
       <c r="D46" t="n">
-        <v>119</v>
+        <v>749.7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>119</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12.3</v>
+        <v>6.5</v>
       </c>
       <c r="C47" t="n">
-        <v>76.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="D47" t="n">
-        <v>200</v>
+        <v>823.5</v>
       </c>
       <c r="E47" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>81</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
       <c r="C48" t="n">
-        <v>72.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>273.9</v>
+        <v>908</v>
       </c>
       <c r="E48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>73.89999999999998</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C49" t="n">
-        <v>76</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>348.5</v>
+        <v>119</v>
       </c>
       <c r="E49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>74.60000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5.1</v>
+        <v>12.3</v>
       </c>
       <c r="C50" t="n">
-        <v>83.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>430.1</v>
+        <v>200</v>
       </c>
       <c r="E50" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F50" t="n">
-        <v>81.60000000000002</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="C51" t="n">
-        <v>76.7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>505.8</v>
+        <v>273.9</v>
       </c>
       <c r="E51" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>75.69999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>9.4</v>
       </c>
       <c r="C52" t="n">
-        <v>79.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="D52" t="n">
-        <v>587.7</v>
+        <v>348.5</v>
       </c>
       <c r="E52" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F52" t="n">
-        <v>81.90000000000003</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="C53" t="n">
-        <v>82.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>669.1</v>
+        <v>430.1</v>
       </c>
       <c r="E53" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F53" t="n">
-        <v>81.39999999999998</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="C54" t="n">
-        <v>78.8</v>
+        <v>76.7</v>
       </c>
       <c r="D54" t="n">
-        <v>749.7</v>
+        <v>505.8</v>
       </c>
       <c r="E54" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>80.60000000000002</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.5</v>
+        <v>9.4</v>
       </c>
       <c r="C55" t="n">
-        <v>80.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>823.5</v>
+        <v>587.7</v>
       </c>
       <c r="E55" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>73.79999999999995</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="C56" t="n">
-        <v>85.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D56" t="n">
-        <v>908</v>
+        <v>669.1</v>
       </c>
       <c r="E56" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>84.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>80</v>
+      </c>
       <c r="D57" t="n">
-        <v>126.9</v>
+        <v>761.2</v>
       </c>
       <c r="E57" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>126.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.4</v>
+        <v>6.2</v>
       </c>
       <c r="C58" t="n">
-        <v>76.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="D58" t="n">
-        <v>199.8</v>
+        <v>825.6</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>72.90000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1.4</v>
+        <v>-3.2</v>
       </c>
       <c r="C59" t="n">
-        <v>71.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>276.4</v>
+        <v>840.4</v>
       </c>
       <c r="E59" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>76.59999999999997</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>78.7</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>361.5</v>
+        <v>126.9</v>
       </c>
       <c r="E60" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>85.10000000000002</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>-0.4</v>
       </c>
       <c r="C61" t="n">
-        <v>85.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>442.1</v>
+        <v>199.8</v>
       </c>
       <c r="E61" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>80.60000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6.5</v>
+        <v>-1.4</v>
       </c>
       <c r="C62" t="n">
-        <v>82.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>523</v>
+        <v>276.4</v>
       </c>
       <c r="E62" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F62" t="n">
-        <v>80.89999999999998</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="C63" t="n">
-        <v>82.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="D63" t="n">
-        <v>606.8</v>
+        <v>361.5</v>
       </c>
       <c r="E63" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F63" t="n">
-        <v>83.79999999999995</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>84.3</v>
+        <v>85.3</v>
       </c>
       <c r="D64" t="n">
-        <v>687.3</v>
+        <v>442.1</v>
       </c>
       <c r="E64" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>80.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="C65" t="n">
-        <v>80</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>761.2</v>
+        <v>523</v>
       </c>
       <c r="E65" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>73.90000000000009</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="C66" t="n">
-        <v>82</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>825.6</v>
+        <v>606.8</v>
       </c>
       <c r="E66" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>64.39999999999998</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-3.2</v>
+        <v>3.8</v>
       </c>
       <c r="C67" t="n">
-        <v>76.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="D67" t="n">
-        <v>840.4</v>
+        <v>687.3</v>
       </c>
       <c r="E67" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>14.79999999999995</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
